--- a/BookManager/Controlador/InventariosExportados/2024-11-30.xlsx
+++ b/BookManager/Controlador/InventariosExportados/2024-11-30.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
